--- a/iBOM/BOM_PW-Link V2.13_PW-Link V2.13_2024-11-19.xlsx
+++ b/iBOM/BOM_PW-Link V2.13_PW-Link V2.13_2024-11-19.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90596F3F-60BF-42AE-94DB-04B9F6EC4FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEDCDC5-314A-4FE0-9F57-DBC5621B8AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="16063" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1627,7 @@
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
         <v>63</v>
@@ -1662,7 +1662,7 @@
         <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
         <v>70</v>
@@ -1697,7 +1697,7 @@
         <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
         <v>77</v>
@@ -1732,7 +1732,7 @@
         <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
         <v>84</v>
@@ -1767,7 +1767,7 @@
         <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
         <v>91</v>
@@ -1802,7 +1802,7 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
         <v>98</v>
@@ -2467,7 +2467,7 @@
         <v>189</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
         <v>187</v>
@@ -2502,7 +2502,7 @@
         <v>196</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="G37" t="s">
         <v>194</v>
@@ -2537,7 +2537,7 @@
         <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="G38" t="s">
         <v>198</v>
@@ -2572,7 +2572,7 @@
         <v>207</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="G39" t="s">
         <v>205</v>
@@ -2607,7 +2607,7 @@
         <v>214</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="G40" t="s">
         <v>212</v>
@@ -2642,7 +2642,7 @@
         <v>220</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="G41" t="s">
         <v>218</v>
@@ -2677,7 +2677,7 @@
         <v>227</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="G42" t="s">
         <v>225</v>
@@ -2712,7 +2712,7 @@
         <v>234</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="G43" t="s">
         <v>232</v>
@@ -2747,7 +2747,7 @@
         <v>241</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="G44" t="s">
         <v>239</v>
@@ -2817,7 +2817,7 @@
         <v>254</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="G46" t="s">
         <v>252</v>
@@ -2852,7 +2852,7 @@
         <v>261</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="G47" t="s">
         <v>259</v>
